--- a/employeeImportTemplate.xlsx
+++ b/employeeImportTemplate.xlsx
@@ -1,41 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuocAnh\cic-erp-contract\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="16980"/>
+  </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Mã NV *</t>
+  </si>
+  <si>
+    <t>Họ và tên *</t>
+  </si>
+  <si>
+    <t>Email *</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>Chức vụ</t>
+  </si>
+  <si>
+    <t>Role *</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Số CCCD</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Trình độ học vấn</t>
+  </si>
+  <si>
+    <t>Chuyên ngành</t>
+  </si>
+  <si>
+    <t>Chứng chỉ</t>
+  </si>
+  <si>
+    <t>Ngày vào làm</t>
+  </si>
+  <si>
+    <t>Loại hợp đồng</t>
+  </si>
+  <si>
+    <t>Số tài khoản NH</t>
+  </si>
+  <si>
+    <t>Tên ngân hàng</t>
+  </si>
+  <si>
+    <t>NV001</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>a@cic.vn</t>
+  </si>
+  <si>
+    <t>0901234567</t>
+  </si>
+  <si>
+    <t>@nguyen_a</t>
+  </si>
+  <si>
+    <t>bim</t>
+  </si>
+  <si>
+    <t>Chuyên viên</t>
+  </si>
+  <si>
+    <t>NVKD</t>
+  </si>
+  <si>
+    <t>15/03/1990</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>001234567890</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Đại học</t>
+  </si>
+  <si>
+    <t>CNTT</t>
+  </si>
+  <si>
+    <t>PMP</t>
+  </si>
+  <si>
+    <t>01/01/2024</t>
+  </si>
+  <si>
+    <t>Full-time</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>VCB</t>
+  </si>
+  <si>
+    <t>Tên đơn vị</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +176,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,115 +508,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1048576"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="15.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Mã nhân viên *</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Họ và tên *</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Email *</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Số điện thoại</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Mã đơn vị *</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Chức vụ</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Role *</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Ngày sinh</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Giới tính</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Số CCCD</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Địa chỉ</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Trình độ học vấn</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Ngày vào làm</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Loại hợp đồng</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Số tài khoản NH</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Tên ngân hàng</v>
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>NV001</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Nguyễn Văn A</v>
-      </c>
-      <c r="C2" t="str">
-        <v>a@cic.vn</v>
-      </c>
-      <c r="D2" t="str">
-        <v>0901234567</v>
-      </c>
-      <c r="E2" t="str">
-        <v>bim</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Chuyên viên</v>
-      </c>
-      <c r="G2" t="str">
-        <v>NVKD</v>
-      </c>
-      <c r="H2" t="str">
-        <v>15/03/1990</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Nam</v>
-      </c>
-      <c r="J2" t="str">
-        <v>001234567890</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Hà Nội</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Đại học</v>
-      </c>
-      <c r="M2" t="str">
-        <v>01/01/2024</v>
-      </c>
-      <c r="N2" t="str">
-        <v>Chính thức</v>
-      </c>
-      <c r="O2" t="str">
-        <v>1234567890</v>
-      </c>
-      <c r="P2" t="str">
-        <v>VCB</v>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
+    <ignoredError sqref="A1:E1 A2:E2 G2:S2 G1:S1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/employeeImportTemplate.xlsx
+++ b/employeeImportTemplate.xlsx
@@ -5,21 +5,27 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuocAnh\cic-erp-contract\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuocAnh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="16980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8325" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$S$65</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="647">
   <si>
     <t>Mã NV *</t>
   </si>
@@ -78,68 +84,1898 @@
     <t>NV001</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>a@cic.vn</t>
-  </si>
-  <si>
-    <t>0901234567</t>
-  </si>
-  <si>
-    <t>@nguyen_a</t>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Full-time</t>
+  </si>
+  <si>
+    <t>Đặng Đức Hà</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Hà</t>
+  </si>
+  <si>
+    <t>Cao Việt Dũng</t>
+  </si>
+  <si>
+    <t>Mai Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Phan Thị Thuỳ Châu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoàng Yến</t>
+  </si>
+  <si>
+    <t>Đinh Ngọc Dung</t>
+  </si>
+  <si>
+    <t>Đinh Huỳnh Thái</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Mỹ Khanh</t>
+  </si>
+  <si>
+    <t>Trần Võ Mỹ Diệu</t>
+  </si>
+  <si>
+    <t>Trần Nguyễn Thanh Ngân</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Tiến</t>
+  </si>
+  <si>
+    <t>Chế Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Trần Bá Lộc</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hương Loan</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>Cao Thị Thu Trang</t>
+  </si>
+  <si>
+    <t>Trần Gia Khánh</t>
+  </si>
+  <si>
+    <t>Nghiêm Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung Ngận</t>
+  </si>
+  <si>
+    <t>Vũ Thị Thu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoài Thương</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Quỳnh</t>
+  </si>
+  <si>
+    <t>Hoàng Thế Cường</t>
+  </si>
+  <si>
+    <t>Phạm Việt Thái</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thúy</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hùng</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Trang</t>
+  </si>
+  <si>
+    <t>Từ Thị Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sơn</t>
+  </si>
+  <si>
+    <t>Trần Thị Huyền</t>
+  </si>
+  <si>
+    <t>Ninh Văn Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Quang</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Thìn</t>
+  </si>
+  <si>
+    <t>Lương Thành Hưng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tú</t>
+  </si>
+  <si>
+    <t>Đinh Trần Tuấn</t>
+  </si>
+  <si>
+    <t>Trịnh Văn Tâm</t>
+  </si>
+  <si>
+    <t>Phạm Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>Nguyễn Chí Chung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nguyễn Đức Thành</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hằng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Phái</t>
+  </si>
+  <si>
+    <t>Lê Trí Đức</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Thủy</t>
+  </si>
+  <si>
+    <t>Đào Thu Hằng</t>
+  </si>
+  <si>
+    <t>Vũ Hương Thảo</t>
+  </si>
+  <si>
+    <t>Nhữ Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>Phạm Kiều Hưng</t>
+  </si>
+  <si>
+    <t>Trần Hữu Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Nhiệm</t>
+  </si>
+  <si>
+    <t>Trần Văn Nghĩa</t>
+  </si>
+  <si>
+    <t>Hà Văn Đức</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hòa</t>
+  </si>
+  <si>
+    <t>Nguyễn Huỳnh Huy</t>
+  </si>
+  <si>
+    <t>Đặng Văn Quang</t>
+  </si>
+  <si>
+    <t>Trần Đức Hoàng</t>
+  </si>
+  <si>
+    <t>Đặng Trung Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Lâm</t>
+  </si>
+  <si>
+    <t>Võ Thành Công</t>
+  </si>
+  <si>
+    <t>Đào Đông Quỳnh</t>
+  </si>
+  <si>
+    <t>Phó Tổng Giám đốc</t>
+  </si>
+  <si>
+    <t>NV002</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Ánh</t>
+  </si>
+  <si>
+    <t>NV003</t>
+  </si>
+  <si>
+    <t>NV004</t>
+  </si>
+  <si>
+    <t>NV005</t>
+  </si>
+  <si>
+    <t>NV006</t>
+  </si>
+  <si>
+    <t>NV007</t>
+  </si>
+  <si>
+    <t>NV008</t>
+  </si>
+  <si>
+    <t>NV009</t>
+  </si>
+  <si>
+    <t>NV010</t>
+  </si>
+  <si>
+    <t>NV011</t>
+  </si>
+  <si>
+    <t>NV012</t>
+  </si>
+  <si>
+    <t>NV013</t>
+  </si>
+  <si>
+    <t>NV014</t>
+  </si>
+  <si>
+    <t>NV015</t>
+  </si>
+  <si>
+    <t>NV016</t>
+  </si>
+  <si>
+    <t>NV017</t>
+  </si>
+  <si>
+    <t>NV018</t>
+  </si>
+  <si>
+    <t>NV019</t>
+  </si>
+  <si>
+    <t>NV020</t>
+  </si>
+  <si>
+    <t>NV021</t>
+  </si>
+  <si>
+    <t>NV022</t>
+  </si>
+  <si>
+    <t>NV023</t>
+  </si>
+  <si>
+    <t>NV024</t>
+  </si>
+  <si>
+    <t>NV025</t>
+  </si>
+  <si>
+    <t>NV026</t>
+  </si>
+  <si>
+    <t>NV027</t>
+  </si>
+  <si>
+    <t>NV028</t>
+  </si>
+  <si>
+    <t>NV029</t>
+  </si>
+  <si>
+    <t>NV030</t>
+  </si>
+  <si>
+    <t>NV031</t>
+  </si>
+  <si>
+    <t>NV032</t>
+  </si>
+  <si>
+    <t>NV033</t>
+  </si>
+  <si>
+    <t>NV034</t>
+  </si>
+  <si>
+    <t>NV035</t>
+  </si>
+  <si>
+    <t>NV036</t>
+  </si>
+  <si>
+    <t>NV037</t>
+  </si>
+  <si>
+    <t>NV038</t>
+  </si>
+  <si>
+    <t>NV039</t>
+  </si>
+  <si>
+    <t>NV040</t>
+  </si>
+  <si>
+    <t>NV041</t>
+  </si>
+  <si>
+    <t>NV042</t>
+  </si>
+  <si>
+    <t>NV043</t>
+  </si>
+  <si>
+    <t>NV044</t>
+  </si>
+  <si>
+    <t>NV045</t>
+  </si>
+  <si>
+    <t>NV046</t>
+  </si>
+  <si>
+    <t>NV047</t>
+  </si>
+  <si>
+    <t>NV048</t>
+  </si>
+  <si>
+    <t>NV049</t>
+  </si>
+  <si>
+    <t>NV050</t>
+  </si>
+  <si>
+    <t>NV051</t>
+  </si>
+  <si>
+    <t>NV052</t>
+  </si>
+  <si>
+    <t>NV053</t>
+  </si>
+  <si>
+    <t>NV054</t>
+  </si>
+  <si>
+    <t>NV055</t>
+  </si>
+  <si>
+    <t>NV056</t>
+  </si>
+  <si>
+    <t>NV057</t>
+  </si>
+  <si>
+    <t>NV058</t>
+  </si>
+  <si>
+    <t>NV059</t>
+  </si>
+  <si>
+    <t>NV060</t>
+  </si>
+  <si>
+    <t>NV061</t>
+  </si>
+  <si>
+    <t>NV062</t>
+  </si>
+  <si>
+    <t>NV063</t>
+  </si>
+  <si>
+    <t>NV064</t>
+  </si>
+  <si>
+    <t>thuongnth@cic.com.vn</t>
+  </si>
+  <si>
+    <t>Kế toán Chi nhánh</t>
+  </si>
+  <si>
+    <t>Nhân viên kỹ thuật</t>
+  </si>
+  <si>
+    <t>Chủ tịch HĐQT</t>
+  </si>
+  <si>
+    <t>Tổng Giám đốc</t>
+  </si>
+  <si>
+    <t>GĐ CN TP.HCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phó Giám đốc </t>
+  </si>
+  <si>
+    <t>Thủ quỹ kiêm Hành chính tổng hợp</t>
+  </si>
+  <si>
+    <t>Nhân viên kinh doanh</t>
+  </si>
+  <si>
+    <t>Kế toán trưởng</t>
+  </si>
+  <si>
+    <t>Nhân viên Kế toán</t>
+  </si>
+  <si>
+    <t>Nhân viên IT</t>
+  </si>
+  <si>
+    <t>Nhân viên Hành chính, Văn thư</t>
+  </si>
+  <si>
+    <t>Lái xe</t>
+  </si>
+  <si>
+    <t>Nhân viên Marketing</t>
+  </si>
+  <si>
+    <t>Giám đốc</t>
+  </si>
+  <si>
+    <t>Nhân viên hỗ trợ kỹ thuật và PM</t>
+  </si>
+  <si>
+    <t>Nhân viên hỗ trợ kỹ thuật</t>
+  </si>
+  <si>
+    <t>Phó Giám đốc TT</t>
+  </si>
+  <si>
+    <t>Nhân viên Tư vấn Dự án</t>
+  </si>
+  <si>
+    <t>Nhân viên Tư vấn thiết kế</t>
+  </si>
+  <si>
+    <t>Nhân viên Kỹ thuật</t>
+  </si>
+  <si>
+    <t>P1406 Chung cư Platinum Residences, số 6 Nguyễn Công Hoan, phường Ngọc Khánh, quận Ba Đình, Hà Nội</t>
+  </si>
+  <si>
+    <t>C1/52 Thụy Khuê, Tây Hồ, Hà nội</t>
+  </si>
+  <si>
+    <t>28/1/178 Tây Sơn-Đống Đa-HN</t>
+  </si>
+  <si>
+    <t>11.1 Lô E1 CC Mỹ Đức, 220 Xô Viết Nghệ Tĩnh, P21, Quận Bình Thạnh, Tp HCM</t>
+  </si>
+  <si>
+    <t>Số 644/4/16 Đường 3/2, Phường 14, Quận 10, TP HCM</t>
+  </si>
+  <si>
+    <t>Số 2/1 Bàu Bàng, Phường 13, Quận Tân Bình, TP HCM</t>
+  </si>
+  <si>
+    <t>Số 56/13 TX25, Khu phố 2, P. Thạnh Xuân, Quận 12, TP.HCM</t>
+  </si>
+  <si>
+    <t>58/21/22 đường số 47, phường Hiệp Bình Chánh, TP. Thủ Đức, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Khu phố 2A, Quốc lộ 1A, Phường Tân Thới Hiệp, TP. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>K9-P.107-P. Bách Khoa, Hà Nội</t>
+  </si>
+  <si>
+    <t>Phòng 905 toà HH2B Đơn Nguyên A, chung cư Gia Thuỵ, P. Gia Thuỵ, Q. Long Biên, Hà Nội</t>
+  </si>
+  <si>
+    <t>P509 Tòa N01B Goldenland, 275 Nguyễn Trãi, Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>CT2 C2 VOV Mễ Trì Nam Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>P.404, CT2 chung cư Skylight, 125D Minh Khai, HBT, HN</t>
+  </si>
+  <si>
+    <t>P2206 Tòa nhà CT12B Khu đô thị mới Kim Văn, Kim Lũ, P. Đại Kim, Q. Hoàng Mai, HN</t>
+  </si>
+  <si>
+    <t>nhà số 10 ngách 15, ngõ 329 Cầu Giấy, HN nha</t>
+  </si>
+  <si>
+    <t>Ngõ 139,Phố Tân Mai, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>152 Nguyễn Đình Hoàn, Nghĩa Đô, Cầu Giấy, Hà Nội</t>
+  </si>
+  <si>
+    <t>P6, E3 Phương mai, Đống Đa, HN</t>
+  </si>
+  <si>
+    <t>Số 66e Pháo Đài Láng, LángThượng, Đống Đa, HN</t>
+  </si>
+  <si>
+    <t>Số 9 ngách 64/26 Phan Đình Giót, Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>Chung cư 987 Tam Trinh, Yên Sở, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>75 Phố Huế, P. Phạm Đình Hổ, Q. Hai Bà Trưng, HN</t>
+  </si>
+  <si>
+    <t>Số 16 ngõ 107 Vĩnh Hưng Hoàng Mai Hà Nội</t>
+  </si>
+  <si>
+    <t>239 Định Công, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>số 21 ngách 66 ngõ gốc đề, P. Hoàng Văn Thụ, Q. Hoàng Mai ạ</t>
+  </si>
+  <si>
+    <t>512 Nơ 18 - Khu ĐT Pháp Vân, P. Hoàng Liệt, Q Hoàng Mai, Tp. Hà Nội</t>
+  </si>
+  <si>
+    <t>No3A-2 KĐT Sài Đồng, P. Phúc Đồng, Q. Long Biên, Tp. Hà Nội</t>
+  </si>
+  <si>
+    <t>Số 114 phố Lê Lợi, Thị trấn Vân Đình, Huyện Ứng Hòa, Hà Nội</t>
+  </si>
+  <si>
+    <t>Đông Mỹ-Thanh Trì- HN</t>
+  </si>
+  <si>
+    <t>P.1408, chung cư Him Lam, Thạch Bàn, Long Biên, HN</t>
+  </si>
+  <si>
+    <t>P410 - B6 Vĩnh Hồ, P. Ngã Tư Sở - Q. Đống Đa - Hà Nội</t>
+  </si>
+  <si>
+    <t>E4 Phương Mai, Đống Đa, Hà Nội</t>
+  </si>
+  <si>
+    <t>Tổ 5, ngõ 381 Nguyễn Khang, Yên Hòa, Cầu Giấy, Hà Nội</t>
+  </si>
+  <si>
+    <t>Số 16 ngõ 40 Phan Đình Giót</t>
+  </si>
+  <si>
+    <t>P0505 CC CAHN - Ngõ 24 Nguyễn Khuyến, P. Văn Quán, Q.Hà Đông, Tp. Hà nội</t>
+  </si>
+  <si>
+    <t>P5-B34 TT Yên Lãng, Thịnh Quang, Đống Đa, Hà Nội</t>
+  </si>
+  <si>
+    <t>Số 8, ngácg 46, Ngõ Hòa Bình 7, Minh Khai, quận Hai Bà Trưng, Hà Nội</t>
+  </si>
+  <si>
+    <t>Xuân Dục-Yên Thường - Gia Lâm _HN</t>
+  </si>
+  <si>
+    <t>Số 37, tổ 9 Khu tập thể Trung cấp Kinh tế Phú Lâm, Hà Đông, Hà Nội</t>
+  </si>
+  <si>
+    <t>Thôn Thanh Củ, Ngọc Khanh, Kim Động, Hưng Yên</t>
+  </si>
+  <si>
+    <t>Số nhà 16A ngõ 1 Thanh Lãm - Phường Phú Lãm - Hà Đông - Hà Nội</t>
+  </si>
+  <si>
+    <t>Thụy Khuê, Bưởi, Tây Hồ, Hà Nội</t>
+  </si>
+  <si>
+    <t>Tổ 3, Phúc La, Hà Đông, Hà Nội</t>
+  </si>
+  <si>
+    <t>12 Ngô Văn Sở, Trần Hưng Đạo, Hà Nội</t>
+  </si>
+  <si>
+    <t>40 Phương Liệt, Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>Chung cư Zei số 8 Lê Đức Thọ, Nam Từ Liêm, HàNooij</t>
+  </si>
+  <si>
+    <t>Thạc sỹ, Kỹ sư Xây dựng</t>
+  </si>
+  <si>
+    <t>Ths. QTKD
+KS Tin học XD</t>
+  </si>
+  <si>
+    <t>Tiến sỹ - KTS</t>
+  </si>
+  <si>
+    <t>Kỹ sư</t>
+  </si>
+  <si>
+    <t>Cử nhân Kinh tế</t>
+  </si>
+  <si>
+    <t>Kỹ sư xây dựng</t>
+  </si>
+  <si>
+    <t>Cử nhân Kinh tế + tài chính</t>
+  </si>
+  <si>
+    <t>Quản trị kinh doanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kỹ sư </t>
+  </si>
+  <si>
+    <t>Cử nhân kế toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cử nhân kế toán </t>
+  </si>
+  <si>
+    <t>Cử nhân</t>
+  </si>
+  <si>
+    <t>Phát thanh truyền hình</t>
+  </si>
+  <si>
+    <t>Cử nhân ngoại ngữ</t>
+  </si>
+  <si>
+    <t>Công nghệ kỹ thuật cơ khí</t>
+  </si>
+  <si>
+    <t>Ths. Kỹ thuật hóa học</t>
+  </si>
+  <si>
+    <t>ThS Quản lý xây dựng</t>
+  </si>
+  <si>
+    <t>Ths. Kinh tế
+CN Kinh tế đầu tư</t>
+  </si>
+  <si>
+    <t>Cử nhân Kinh tế (QL)</t>
+  </si>
+  <si>
+    <t>Kiến trúc sư</t>
+  </si>
+  <si>
+    <t>Ths.KTS</t>
+  </si>
+  <si>
+    <t>ThS XD</t>
+  </si>
+  <si>
+    <t>Ths. KS Xây dựng</t>
+  </si>
+  <si>
+    <t>Ths Quản lý kinh tế, Cử nhân Luật</t>
+  </si>
+  <si>
+    <t>ĐH Xây dựng</t>
+  </si>
+  <si>
+    <t>ĐH xây dựng</t>
+  </si>
+  <si>
+    <t>ĐH Kiến trúc HN</t>
+  </si>
+  <si>
+    <t>ĐH Kinh tế TP HCM</t>
+  </si>
+  <si>
+    <t>ĐH Bách Khoa - TP.HCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐH ngoại thương </t>
+  </si>
+  <si>
+    <t>ĐH Bách Khoa TP.HCM</t>
+  </si>
+  <si>
+    <t>ĐH Kinh tế HCM</t>
+  </si>
+  <si>
+    <t>ĐH Văn Lang</t>
+  </si>
+  <si>
+    <t>Đại Học Giao thông  vận tải  TP.HCM</t>
+  </si>
+  <si>
+    <t>ĐH Ngân hàng HCM</t>
+  </si>
+  <si>
+    <t>DH Bách Khoa HCM</t>
+  </si>
+  <si>
+    <t>ĐH Thăng Long</t>
+  </si>
+  <si>
+    <t>ĐH Công nghệ</t>
+  </si>
+  <si>
+    <t>ĐH Đông Đô</t>
+  </si>
+  <si>
+    <t>ĐH KHXH&amp; Nhân văn</t>
+  </si>
+  <si>
+    <t>Trung cấp</t>
+  </si>
+  <si>
+    <t>Học viện Báo chí và tuyên truyền</t>
+  </si>
+  <si>
+    <t>ĐH Bách Khóa HN</t>
+  </si>
+  <si>
+    <t>ĐH Mỏ địa chất</t>
+  </si>
+  <si>
+    <t>ĐH Bách Khoa</t>
+  </si>
+  <si>
+    <t>ĐH Kỹ thuật Công nghiệp</t>
+  </si>
+  <si>
+    <t>ĐH Giao thông vận tải</t>
+  </si>
+  <si>
+    <t>ĐH Giao thông</t>
+  </si>
+  <si>
+    <t>ĐH CNTT - TP. HCM</t>
+  </si>
+  <si>
+    <t>ĐH Kinh tế quốc dân</t>
+  </si>
+  <si>
+    <t>ĐH Kiến trúc</t>
+  </si>
+  <si>
+    <t>ĐHKTHN</t>
+  </si>
+  <si>
+    <t>ĐH Bách Khoa ĐN</t>
+  </si>
+  <si>
+    <t>ĐH Điện Lực</t>
+  </si>
+  <si>
+    <t>ĐHSP Kỹ thuật TP HCM</t>
+  </si>
+  <si>
+    <t>ĐH Công nghiệp Hà Nội</t>
+  </si>
+  <si>
+    <t>ĐH Kinh tế quốc dân + Đại học Khoa học Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Ths. QTKD+
+KS Tin học XD</t>
+  </si>
+  <si>
+    <t>Ths. Xây dựng + kỹ sư Xây dựng</t>
+  </si>
+  <si>
+    <t>0982727768</t>
+  </si>
+  <si>
+    <t>040174007143</t>
+  </si>
+  <si>
+    <t>Số 58/55 Nguyễn Minh Hoàng, Phường 12, Quận Tân Bình, TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>ấp Phú Cường, Xã Phú Hựu, Huyện Châu Thành, Tỉnh Đồng Tháp</t>
+  </si>
+  <si>
+    <t>Cử nhân Quản trị Khách sạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tien.nt@cic.com.vn </t>
+  </si>
+  <si>
+    <t>ĐH Tài chính Marketing</t>
+  </si>
+  <si>
+    <t>Khu phố 3, phường Cát Lái , quận 2 Thành phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngocanh@cic.com.vn </t>
+  </si>
+  <si>
+    <t>Hoài Châu, Hoài Chơn, Bình Định</t>
+  </si>
+  <si>
+    <t>Thôn La Chữ, Phước Hữu, Ninh Phước, Ninh Thuận</t>
+  </si>
+  <si>
+    <t>01/08/2024</t>
+  </si>
+  <si>
+    <t>01/09/2019</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thuvt@cic.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hant.cic@gmail.com </t>
+  </si>
+  <si>
+    <t>thutrangcao122@gmail.com</t>
+  </si>
+  <si>
+    <t>NHTMCP DT&amp;PT VN-CN SGD I - HA NOI - 01202002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thaipv@cic.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thuynt@cic.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minhphuong@cic.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0962830285 </t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>28/05/2000</t>
+  </si>
+  <si>
+    <t>001300013401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đại học Yonsei – Trường Quốc tế Underwood (UIC), Hàn Quốc </t>
+  </si>
+  <si>
+    <t>Phát triển Bền vững và Hợp tác</t>
+  </si>
+  <si>
+    <t>Số 172A Lạc Long Quân, Bưởi, Tây Hồ, Hà Nội</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
+  </si>
+  <si>
+    <t>18/12/2012</t>
+  </si>
+  <si>
+    <t>06/012013</t>
+  </si>
+  <si>
+    <t>01/03/2011</t>
+  </si>
+  <si>
+    <t>11/10/2008</t>
+  </si>
+  <si>
+    <t>0868757465</t>
+  </si>
+  <si>
+    <t>04/02/2003</t>
+  </si>
+  <si>
+    <t>019303008379</t>
+  </si>
+  <si>
+    <t>TDP La Giàng, Bá Xuyên, Thái Nguyên</t>
+  </si>
+  <si>
+    <t>10/01/2026</t>
+  </si>
+  <si>
+    <t>01/02/2025</t>
+  </si>
+  <si>
+    <t>ducle.200301@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haith@cic.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">banhiem@cic.com.vn </t>
+  </si>
+  <si>
+    <t>haduc30797@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jackycong2706@gmail.com</t>
+  </si>
+  <si>
+    <t>Nhân viên hồ sơ dự án</t>
+  </si>
+  <si>
+    <t>dvquang2910@gmail.com</t>
+  </si>
+  <si>
+    <t>quynhdd@cic.com.vn</t>
+  </si>
+  <si>
+    <t>Phó Giám đốc</t>
+  </si>
+  <si>
+    <t>06/06/2022</t>
+  </si>
+  <si>
+    <t>17/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ktstranvannghia@gmail.com</t>
+  </si>
+  <si>
+    <t>24/08/2023</t>
+  </si>
+  <si>
+    <t>dthieu1001@gmail.com</t>
+  </si>
+  <si>
+    <t>nthanhlamxd@gmail.com</t>
+  </si>
+  <si>
+    <t>0702724279</t>
+  </si>
+  <si>
+    <t>7604vuhoa@gmail.com</t>
+  </si>
+  <si>
+    <t>tranduchoangtdh1@gmail.com</t>
+  </si>
+  <si>
+    <t>0339321622</t>
+  </si>
+  <si>
+    <t>0943431591</t>
+  </si>
+  <si>
+    <t>anhnq@cic.com.vn</t>
+  </si>
+  <si>
+    <t>Xóm 10, Phú Lễ, Hải Châu, Hải Hậu, Nam Định</t>
+  </si>
+  <si>
+    <t>14/10/2023</t>
+  </si>
+  <si>
+    <t>05/09/2023</t>
+  </si>
+  <si>
+    <t>13/12/2024</t>
+  </si>
+  <si>
+    <t>14/4 Tân lập, Đông Hòa, Dĩ An, Bình Dương</t>
+  </si>
+  <si>
+    <t>22/06/2024</t>
+  </si>
+  <si>
+    <t>Minh Đức, Mỹ Hào, Hưng Yên</t>
+  </si>
+  <si>
+    <t>Thôn Đông Trù, xã Đông Hội, Huyện Đông Anh, TP.Hà Nội</t>
+  </si>
+  <si>
+    <t>10/06/2024</t>
+  </si>
+  <si>
+    <t>08/06/2024</t>
+  </si>
+  <si>
+    <t>20/08/1991</t>
+  </si>
+  <si>
+    <t>040091020185</t>
+  </si>
+  <si>
+    <t>Nguyễn Du, thành phố Hà Tĩnh, Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>12/03/2025</t>
+  </si>
+  <si>
+    <t>0978351137</t>
+  </si>
+  <si>
+    <t>27/06/2000</t>
+  </si>
+  <si>
+    <t>040200022906</t>
+  </si>
+  <si>
+    <t>Số 10, Khối Quang Trung, Xã Vạn An, Nghệ An</t>
+  </si>
+  <si>
+    <t>ĐH Thủy Lợi</t>
+  </si>
+  <si>
+    <t>05/10/2025</t>
+  </si>
+  <si>
+    <t>16/03/1999</t>
+  </si>
+  <si>
+    <t>030199012747</t>
+  </si>
+  <si>
+    <t>Cấp thoát nước</t>
+  </si>
+  <si>
+    <t>Tổ 8, P Giáp Bát, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>08/01/2022</t>
+  </si>
+  <si>
+    <t>0966904015</t>
+  </si>
+  <si>
+    <t>13/06/1996</t>
+  </si>
+  <si>
+    <t>079096007298</t>
+  </si>
+  <si>
+    <t>Thạnh Xuân, Quận 12, thành phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>12/01/2025</t>
+  </si>
+  <si>
+    <t>ĐH Bách Khoa TP HCM</t>
+  </si>
+  <si>
+    <t>20/03/2023</t>
+  </si>
+  <si>
+    <t>Thạc sĩ + Kỹ sư Xây dựng</t>
+  </si>
+  <si>
+    <t>Hien81.ks@gmail.com</t>
+  </si>
+  <si>
+    <t>dangducha@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0912371187</t>
+  </si>
+  <si>
+    <t>11/01/1976</t>
+  </si>
+  <si>
+    <t>001076023103</t>
+  </si>
+  <si>
+    <t>08/1997</t>
+  </si>
+  <si>
+    <t>hoangha@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0945756668</t>
+  </si>
+  <si>
+    <t>30/12/1977</t>
+  </si>
+  <si>
+    <t>001077022856</t>
+  </si>
+  <si>
+    <t>07/2000</t>
+  </si>
+  <si>
+    <t>cvdung.kts@gmail.com</t>
+  </si>
+  <si>
+    <t>0918708899</t>
+  </si>
+  <si>
+    <t>11.10.1955</t>
+  </si>
+  <si>
+    <t>012055000003</t>
+  </si>
+  <si>
+    <t>04/2008</t>
+  </si>
+  <si>
+    <t>0610100953008</t>
+  </si>
+  <si>
+    <t>NHTMCP QUAN DOI- CN HAI BA TRUNG-HN - 01311007</t>
+  </si>
+  <si>
+    <t>hunglt@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0886916666</t>
+  </si>
+  <si>
+    <t>25.09.1983</t>
+  </si>
+  <si>
+    <t>036083015837</t>
+  </si>
+  <si>
+    <t>3/2007</t>
+  </si>
+  <si>
+    <t>maituan@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0913347960</t>
+  </si>
+  <si>
+    <t>18.07.1977</t>
+  </si>
+  <si>
+    <t>036077018187</t>
+  </si>
+  <si>
+    <t>09/2000</t>
+  </si>
+  <si>
+    <t>thuychau@cic.com.vn</t>
+  </si>
+  <si>
+    <t>07.07.1974</t>
+  </si>
+  <si>
+    <t>05/2004</t>
+  </si>
+  <si>
+    <t>yennth@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0934045088</t>
+  </si>
+  <si>
+    <t>25.10.1988</t>
+  </si>
+  <si>
+    <t>060188000454</t>
+  </si>
+  <si>
+    <t>10/2014</t>
+  </si>
+  <si>
+    <t>dungdn@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0983636933</t>
+  </si>
+  <si>
+    <t>30.11.1978</t>
+  </si>
+  <si>
+    <t>023017901</t>
+  </si>
+  <si>
+    <t>05/2002</t>
+  </si>
+  <si>
+    <t>huynhthai@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0939261463</t>
+  </si>
+  <si>
+    <t>19.05.1988</t>
+  </si>
+  <si>
+    <t>082088000371</t>
+  </si>
+  <si>
+    <t>3/2012</t>
+  </si>
+  <si>
+    <t>mykhanh@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0907550037</t>
+  </si>
+  <si>
+    <t>04.03.1993</t>
+  </si>
+  <si>
+    <t>087193001275</t>
+  </si>
+  <si>
+    <t>1/3/2018</t>
+  </si>
+  <si>
+    <t>dieu.tvm@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0968793155</t>
+  </si>
+  <si>
+    <t>24.02.1998</t>
+  </si>
+  <si>
+    <t>0215433302</t>
+  </si>
+  <si>
+    <t>01/10/2020</t>
+  </si>
+  <si>
+    <t>ngan.tnt@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0938721256</t>
+  </si>
+  <si>
+    <t>01.12.1998</t>
+  </si>
+  <si>
+    <t>025737761</t>
+  </si>
+  <si>
+    <t>01/11/2020</t>
+  </si>
+  <si>
+    <t>0329271885</t>
+  </si>
+  <si>
+    <t>26.01.1995</t>
+  </si>
+  <si>
+    <t>079095016463</t>
+  </si>
+  <si>
+    <t>07/06/2021</t>
+  </si>
+  <si>
+    <t>0935683926</t>
+  </si>
+  <si>
+    <t>13.12.2000</t>
+  </si>
+  <si>
+    <t>052300003010</t>
+  </si>
+  <si>
+    <t>01/05/2023</t>
+  </si>
+  <si>
+    <t>loctb@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0982963986</t>
+  </si>
+  <si>
+    <t>30/05/1998</t>
+  </si>
+  <si>
+    <t>058098006825</t>
+  </si>
+  <si>
+    <t>huongloan@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0906002599</t>
+  </si>
+  <si>
+    <t>15.10.1974</t>
+  </si>
+  <si>
+    <t>011670361</t>
+  </si>
+  <si>
+    <t>7/1997</t>
+  </si>
+  <si>
+    <t>hienntt@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0987869090</t>
+  </si>
+  <si>
+    <t>20.08.1991</t>
+  </si>
+  <si>
+    <t>001191023147</t>
+  </si>
+  <si>
+    <t>0973515177</t>
+  </si>
+  <si>
+    <t>12.2.1991</t>
+  </si>
+  <si>
+    <t>001191000979</t>
+  </si>
+  <si>
+    <t>01/11/2023</t>
+  </si>
+  <si>
+    <t>NHTMCP DT&amp;PT VN-CN SGD I - HA NOI - 01202003</t>
+  </si>
+  <si>
+    <t>giakhanh@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0978288433</t>
+  </si>
+  <si>
+    <t>17.04.1984</t>
+  </si>
+  <si>
+    <t>168113451</t>
+  </si>
+  <si>
+    <t>01/7/2009</t>
+  </si>
+  <si>
+    <t>0916513803</t>
+  </si>
+  <si>
+    <t>30.08.1978</t>
+  </si>
+  <si>
+    <t>001178006715</t>
+  </si>
+  <si>
+    <t>4/2001</t>
+  </si>
+  <si>
+    <t>0333821929</t>
+  </si>
+  <si>
+    <t>12.07.1973</t>
+  </si>
+  <si>
+    <t>034073009316</t>
+  </si>
+  <si>
+    <t>02/01/2019</t>
+  </si>
+  <si>
+    <t>NHTMCP DT&amp;PT VN-CN HA THANH - HA NOI - 01202005</t>
+  </si>
+  <si>
+    <t>0941186413</t>
+  </si>
+  <si>
+    <t>21.09.1991</t>
+  </si>
+  <si>
+    <t>024191018802</t>
+  </si>
+  <si>
+    <t>10.8.2023</t>
+  </si>
+  <si>
+    <t>NHTMCP DT&amp;PT VN-CN TAY HO - HA NOI - 01202016</t>
+  </si>
+  <si>
+    <t>0386236256</t>
+  </si>
+  <si>
+    <t>15.07.1997</t>
+  </si>
+  <si>
+    <t>019197001082</t>
+  </si>
+  <si>
+    <t>tranquynh@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0373268713</t>
+  </si>
+  <si>
+    <t>19.11.1996</t>
+  </si>
+  <si>
+    <t>135749804</t>
+  </si>
+  <si>
+    <t>27/7/2020</t>
+  </si>
+  <si>
+    <t>cuonght@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0389893187</t>
+  </si>
+  <si>
+    <t>05.12.1996</t>
+  </si>
+  <si>
+    <t>013297801</t>
+  </si>
+  <si>
+    <t>14/9/2020</t>
+  </si>
+  <si>
+    <t>0848682535</t>
+  </si>
+  <si>
+    <t>28.06.2000</t>
+  </si>
+  <si>
+    <t>037200009710</t>
+  </si>
+  <si>
+    <t>18/01/2023</t>
+  </si>
+  <si>
+    <t>0332268626</t>
+  </si>
+  <si>
+    <t>24/6/1999</t>
+  </si>
+  <si>
+    <t>034199004758</t>
+  </si>
+  <si>
+    <t>22/03/2023</t>
+  </si>
+  <si>
+    <t>nguyenvanhung@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0976268036</t>
+  </si>
+  <si>
+    <t>26.07.1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">038088005609 </t>
+  </si>
+  <si>
+    <t>nguyenson@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0967950338</t>
+  </si>
+  <si>
+    <t>10.08.1989</t>
+  </si>
+  <si>
+    <t>036089004996</t>
+  </si>
+  <si>
+    <t>02/5/2018</t>
+  </si>
+  <si>
+    <t>trangtran@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0398858897</t>
+  </si>
+  <si>
+    <t>28.08.1995</t>
+  </si>
+  <si>
+    <t>135802725</t>
+  </si>
+  <si>
+    <t>3/7/2017</t>
+  </si>
+  <si>
+    <t>thaott@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0326807661</t>
+  </si>
+  <si>
+    <t>10.01.1996</t>
+  </si>
+  <si>
+    <t>122219894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/06/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">huyentran@cic.com.vn </t>
+  </si>
+  <si>
+    <t>0365756854</t>
+  </si>
+  <si>
+    <t>31.08.2000</t>
+  </si>
+  <si>
+    <t>027300006226</t>
+  </si>
+  <si>
+    <t>binhnv@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0913066669</t>
+  </si>
+  <si>
+    <t>28.04.1977</t>
+  </si>
+  <si>
+    <t>013272880</t>
+  </si>
+  <si>
+    <t>23/7/2000; 6/2/2014</t>
+  </si>
+  <si>
+    <t>quangta@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0908366986</t>
+  </si>
+  <si>
+    <t>15.11.1987</t>
+  </si>
+  <si>
+    <t>030087001472</t>
+  </si>
+  <si>
+    <t>vuthin@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0986261777</t>
+  </si>
+  <si>
+    <t>26.05.1976</t>
+  </si>
+  <si>
+    <t>001076001730</t>
+  </si>
+  <si>
+    <t>tuandinh@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0859999698</t>
+  </si>
+  <si>
+    <t>05.08.1984</t>
+  </si>
+  <si>
+    <t>131610923</t>
+  </si>
+  <si>
+    <t>trinhvantam@cic.com.vn</t>
+  </si>
+  <si>
+    <t>00987.680.873</t>
+  </si>
+  <si>
+    <t>11.08.1984</t>
+  </si>
+  <si>
+    <t>034084000181</t>
+  </si>
+  <si>
+    <t>9/2009</t>
+  </si>
+  <si>
+    <t>nguyenthanhtu@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0912667020</t>
+  </si>
+  <si>
+    <t>05.03.1984</t>
+  </si>
+  <si>
+    <t>001184024832</t>
+  </si>
+  <si>
+    <t>01/4/2007</t>
+  </si>
+  <si>
+    <t>hien81.ks@gmail.com</t>
+  </si>
+  <si>
+    <t>0949249315</t>
+  </si>
+  <si>
+    <t>10.02.1998</t>
+  </si>
+  <si>
+    <t>036198001104</t>
+  </si>
+  <si>
+    <t>07/9/2020</t>
+  </si>
+  <si>
+    <t>chungnc@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0945285978</t>
+  </si>
+  <si>
+    <t>13.04.1999</t>
+  </si>
+  <si>
+    <t>013619532</t>
+  </si>
+  <si>
+    <t>nguyenhang@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0912462526</t>
+  </si>
+  <si>
+    <t>06.09.1978</t>
+  </si>
+  <si>
+    <t>038178027580</t>
+  </si>
+  <si>
+    <t>8/2003</t>
+  </si>
+  <si>
+    <t>phaipv@cic.com.vn</t>
+  </si>
+  <si>
+    <t>0384549999</t>
+  </si>
+  <si>
+    <t>14.07.1978</t>
+  </si>
+  <si>
+    <t>034078000638</t>
+  </si>
+  <si>
+    <t>9/2000</t>
+  </si>
+  <si>
+    <t>0379779482</t>
+  </si>
+  <si>
+    <t>20/03/2001</t>
+  </si>
+  <si>
+    <t>001201025607</t>
+  </si>
+  <si>
+    <t>ktsvuthuy@gmail.com</t>
+  </si>
+  <si>
+    <t>0904758237</t>
+  </si>
+  <si>
+    <t>04.03.1977</t>
+  </si>
+  <si>
+    <t>001077025021</t>
+  </si>
+  <si>
+    <t>12/2008</t>
+  </si>
+  <si>
+    <t>1200327688</t>
+  </si>
+  <si>
+    <t>0943624382</t>
+  </si>
+  <si>
+    <t>11.08.1977</t>
+  </si>
+  <si>
+    <t>001177002366</t>
+  </si>
+  <si>
+    <t>01/5/2010</t>
+  </si>
+  <si>
+    <t>1200377665</t>
+  </si>
+  <si>
+    <t>thao78@gmail.com</t>
+  </si>
+  <si>
+    <t>0983937686</t>
+  </si>
+  <si>
+    <t>19.04.1978</t>
+  </si>
+  <si>
+    <t>026178000897</t>
+  </si>
+  <si>
+    <t>15/4/2014</t>
+  </si>
+  <si>
+    <t>1206103798</t>
+  </si>
+  <si>
+    <t>0974040323</t>
+  </si>
+  <si>
+    <t>15.09.1981</t>
+  </si>
+  <si>
+    <t>035181004745</t>
+  </si>
+  <si>
+    <t>16/1/2011</t>
+  </si>
+  <si>
+    <t>1200439097</t>
+  </si>
+  <si>
+    <t>pkhung0709@gmail.com</t>
+  </si>
+  <si>
+    <t>0934686817</t>
+  </si>
+  <si>
+    <t>07.09.1993</t>
+  </si>
+  <si>
+    <t>001093019039</t>
+  </si>
+  <si>
+    <t>1/11/2019</t>
+  </si>
+  <si>
+    <t>1600440222</t>
+  </si>
+  <si>
+    <t>NHTMCP DT&amp;PT VN-CN SO GIAO DICH 3-HA NOI - 01202015</t>
+  </si>
+  <si>
+    <t>0353582757</t>
+  </si>
+  <si>
+    <t>25/4/1987</t>
+  </si>
+  <si>
+    <t>017087000063</t>
+  </si>
+  <si>
+    <t>0974946159</t>
+  </si>
+  <si>
+    <t>20/1/1989</t>
+  </si>
+  <si>
+    <t>036089004766</t>
+  </si>
+  <si>
+    <t>0941186522</t>
+  </si>
+  <si>
+    <t>18/7/1997</t>
+  </si>
+  <si>
+    <t>036097014057</t>
+  </si>
+  <si>
+    <t>0393282622</t>
+  </si>
+  <si>
+    <t>30/7/1977</t>
+  </si>
+  <si>
+    <t>001097000044</t>
+  </si>
+  <si>
+    <t>NHTMCP DT&amp;PT VN-CN SGD I - HA NOI - 01202004</t>
+  </si>
+  <si>
+    <t>0965999195</t>
+  </si>
+  <si>
+    <t>16/10/1995</t>
+  </si>
+  <si>
+    <t>026095001653</t>
+  </si>
+  <si>
+    <t>huynguyen@cic.com.vn</t>
+  </si>
+  <si>
+    <t>05/03/1996</t>
+  </si>
+  <si>
+    <t>087096008711</t>
+  </si>
+  <si>
+    <t>NHTMCP DT&amp;PT VN-CN BA CHIEU - TP HCM - 79202021</t>
+  </si>
+  <si>
+    <t>0339180066</t>
+  </si>
+  <si>
+    <t>10/5/1998</t>
+  </si>
+  <si>
+    <t>033098003428</t>
+  </si>
+  <si>
+    <t>0397098611</t>
+  </si>
+  <si>
+    <t>09/5/1998</t>
+  </si>
+  <si>
+    <t>015098005030</t>
+  </si>
+  <si>
+    <t>0859353767</t>
+  </si>
+  <si>
+    <t>10/1/1996</t>
+  </si>
+  <si>
+    <t>001096024432</t>
+  </si>
+  <si>
+    <t>NHTMCP DT&amp;PT VN-CN HA TINH - 42202001</t>
+  </si>
+  <si>
+    <t>0868764389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ducthanh@cic.com.vn </t>
+  </si>
+  <si>
+    <t>20.08.1996</t>
+  </si>
+  <si>
+    <t>001096042400</t>
+  </si>
+  <si>
+    <t>anhnth@cic.com.vn</t>
+  </si>
+  <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>hcm</t>
   </si>
   <si>
     <t>bim</t>
   </si>
   <si>
-    <t>Chuyên viên</t>
-  </si>
-  <si>
-    <t>NVKD</t>
-  </si>
-  <si>
-    <t>15/03/1990</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>001234567890</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>Đại học</t>
-  </si>
-  <si>
-    <t>CNTT</t>
-  </si>
-  <si>
-    <t>PMP</t>
-  </si>
-  <si>
-    <t>01/01/2024</t>
-  </si>
-  <si>
-    <t>Full-time</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>VCB</t>
-  </si>
-  <si>
-    <t>Tên đơn vị</t>
+    <t>tvtk</t>
+  </si>
+  <si>
+    <t>tvda</t>
+  </si>
+  <si>
+    <t>pmxd</t>
+  </si>
+  <si>
+    <t>dcs</t>
+  </si>
+  <si>
+    <t>tckt</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>stc</t>
+  </si>
+  <si>
+    <t>hđqt</t>
+  </si>
+  <si>
+    <t>bgđ</t>
+  </si>
+  <si>
+    <t>hcns</t>
+  </si>
+  <si>
+    <t>Mã đơn vị *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,16 +1983,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,11 +2018,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -185,6 +2085,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="File luong mau"/>
+      <sheetName val="Ma ngan hang 8 so"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,18 +2424,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="7" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.375" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="17" max="17" width="12.5" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,8 +2469,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>37</v>
+      <c r="F1" s="8" t="s">
+        <v>646</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -579,69 +2512,3357 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
+        <v>374</v>
+      </c>
+      <c r="L2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P2" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>1200280930</v>
+      </c>
+      <c r="S2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L3" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N3" t="s">
+        <v>243</v>
+      </c>
+      <c r="P3" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="6">
+        <v>1200281261</v>
+      </c>
+      <c r="S3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P4" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="S4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" t="s">
+        <v>390</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>391</v>
+      </c>
+      <c r="L5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N5" t="s">
+        <v>243</v>
+      </c>
+      <c r="P5" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1200281182</v>
+      </c>
+      <c r="S5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" t="s">
+        <v>395</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>396</v>
+      </c>
+      <c r="L6" t="s">
+        <v>174</v>
+      </c>
+      <c r="M6" t="s">
+        <v>221</v>
+      </c>
+      <c r="N6" t="s">
+        <v>243</v>
+      </c>
+      <c r="P6" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" t="s">
+        <v>399</v>
+      </c>
+      <c r="J7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M7" t="s">
+        <v>222</v>
+      </c>
+      <c r="N7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" t="s">
+        <v>403</v>
+      </c>
+      <c r="J8" t="s">
+        <v>299</v>
+      </c>
+      <c r="K8" t="s">
+        <v>404</v>
+      </c>
+      <c r="L8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M8" t="s">
+        <v>223</v>
+      </c>
+      <c r="N8" t="s">
+        <v>246</v>
+      </c>
+      <c r="P8" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D9" t="s">
+        <v>412</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" t="s">
+        <v>413</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>414</v>
+      </c>
+      <c r="L9" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9" t="s">
+        <v>276</v>
+      </c>
+      <c r="N9" t="s">
+        <v>248</v>
+      </c>
+      <c r="P9" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="C10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" t="s">
+        <v>408</v>
+      </c>
+      <c r="J10" t="s">
+        <v>299</v>
+      </c>
+      <c r="K10" t="s">
+        <v>409</v>
+      </c>
+      <c r="L10" t="s">
+        <v>176</v>
+      </c>
+      <c r="M10" t="s">
+        <v>222</v>
+      </c>
+      <c r="N10" t="s">
+        <v>247</v>
+      </c>
+      <c r="P10" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="C11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" t="s">
+        <v>417</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J11" t="s">
+        <v>299</v>
+      </c>
+      <c r="K11" t="s">
+        <v>419</v>
+      </c>
+      <c r="L11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M11" t="s">
+        <v>224</v>
+      </c>
+      <c r="N11" t="s">
+        <v>249</v>
+      </c>
+      <c r="P11" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="C12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" t="s">
+        <v>422</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" t="s">
+        <v>423</v>
+      </c>
+      <c r="J12" t="s">
+        <v>299</v>
+      </c>
+      <c r="K12" t="s">
+        <v>424</v>
+      </c>
+      <c r="L12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M12" t="s">
+        <v>281</v>
+      </c>
+      <c r="N12" t="s">
+        <v>283</v>
+      </c>
+      <c r="P12" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="C13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" t="s">
+        <v>428</v>
+      </c>
+      <c r="J13" t="s">
+        <v>299</v>
+      </c>
+      <c r="K13" t="s">
+        <v>429</v>
+      </c>
+      <c r="L13" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" t="s">
+        <v>225</v>
+      </c>
+      <c r="N13" t="s">
+        <v>250</v>
+      </c>
+      <c r="P13" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="C14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" t="s">
+        <v>432</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>433</v>
+      </c>
+      <c r="L14" t="s">
+        <v>284</v>
+      </c>
+      <c r="M14" t="s">
+        <v>226</v>
+      </c>
+      <c r="N14" t="s">
+        <v>251</v>
+      </c>
+      <c r="P14" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="C15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" t="s">
+        <v>435</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" t="s">
+        <v>436</v>
+      </c>
+      <c r="J15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K15" t="s">
+        <v>437</v>
+      </c>
+      <c r="L15" t="s">
+        <v>286</v>
+      </c>
+      <c r="M15" t="s">
+        <v>229</v>
+      </c>
+      <c r="N15" t="s">
+        <v>252</v>
+      </c>
+      <c r="P15" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="C16" t="s">
+        <v>439</v>
+      </c>
+      <c r="D16" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" t="s">
+        <v>441</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>442</v>
+      </c>
+      <c r="L16" t="s">
+        <v>287</v>
+      </c>
+      <c r="M16" t="s">
+        <v>221</v>
+      </c>
+      <c r="N16" t="s">
+        <v>253</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
+      <c r="C17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" t="s">
+        <v>445</v>
+      </c>
+      <c r="J17" t="s">
+        <v>299</v>
+      </c>
+      <c r="K17" t="s">
+        <v>446</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="s">
+        <v>227</v>
+      </c>
+      <c r="N17" t="s">
+        <v>254</v>
+      </c>
+      <c r="P17" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1200280903</v>
+      </c>
+      <c r="S17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
+      <c r="C18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D18" t="s">
+        <v>449</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" t="s">
+        <v>450</v>
+      </c>
+      <c r="J18" t="s">
+        <v>299</v>
+      </c>
+      <c r="K18" t="s">
+        <v>451</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="s">
+        <v>228</v>
+      </c>
+      <c r="N18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="6">
+        <v>1207123498</v>
+      </c>
+      <c r="S18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" t="s">
+        <v>452</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" t="s">
+        <v>453</v>
+      </c>
+      <c r="J19" t="s">
+        <v>299</v>
+      </c>
+      <c r="K19" t="s">
+        <v>454</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="s">
+        <v>228</v>
+      </c>
+      <c r="N19" t="s">
+        <v>254</v>
+      </c>
+      <c r="P19" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1206076173</v>
+      </c>
+      <c r="S19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>457</v>
+      </c>
+      <c r="D20" t="s">
+        <v>458</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G20" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" t="s">
+        <v>459</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>460</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="s">
+        <v>221</v>
+      </c>
+      <c r="N20" t="s">
+        <v>256</v>
+      </c>
+      <c r="P20" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="6">
+        <v>1200348397</v>
+      </c>
+      <c r="S20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" t="s">
+        <v>462</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" t="s">
+        <v>463</v>
+      </c>
+      <c r="J21" t="s">
+        <v>299</v>
+      </c>
+      <c r="K21" t="s">
+        <v>464</v>
+      </c>
+      <c r="L21" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" t="s">
+        <v>229</v>
+      </c>
+      <c r="N21" t="s">
+        <v>257</v>
+      </c>
+      <c r="P21" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="6">
+        <v>1200280912</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" t="s">
+        <v>466</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" t="s">
+        <v>467</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>468</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>258</v>
+      </c>
+      <c r="P22" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="6">
+        <v>1221683527</v>
+      </c>
+      <c r="S22" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" t="s">
+        <v>471</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" t="s">
+        <v>472</v>
+      </c>
+      <c r="J23" t="s">
+        <v>299</v>
+      </c>
+      <c r="K23" t="s">
+        <v>473</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="s">
+        <v>230</v>
+      </c>
+      <c r="N23" t="s">
+        <v>259</v>
+      </c>
+      <c r="P23" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="6">
+        <v>2120556039</v>
+      </c>
+      <c r="S23" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>476</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G24" t="s">
+        <v>633</v>
+      </c>
+      <c r="H24" t="s">
+        <v>633</v>
+      </c>
+      <c r="I24" t="s">
+        <v>477</v>
+      </c>
+      <c r="J24" t="s">
+        <v>299</v>
+      </c>
+      <c r="K24" t="s">
+        <v>478</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="s">
+        <v>241</v>
+      </c>
+      <c r="N24" t="s">
+        <v>274</v>
+      </c>
+      <c r="P24">
+        <v>44382</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="6">
+        <v>1207380150</v>
+      </c>
+      <c r="S24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>479</v>
+      </c>
+      <c r="D25" t="s">
+        <v>480</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" t="s">
+        <v>481</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>482</v>
+      </c>
+      <c r="L25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M25" t="s">
+        <v>231</v>
+      </c>
+      <c r="N25" t="s">
+        <v>260</v>
+      </c>
+      <c r="P25" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="6">
+        <v>1207270419</v>
+      </c>
+      <c r="S25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>484</v>
+      </c>
+      <c r="D26" t="s">
+        <v>485</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" t="s">
+        <v>486</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>487</v>
+      </c>
+      <c r="L26" t="s">
+        <v>189</v>
+      </c>
+      <c r="M26" t="s">
+        <v>232</v>
+      </c>
+      <c r="N26" t="s">
+        <v>260</v>
+      </c>
+      <c r="P26" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="6">
+        <v>1207270446</v>
+      </c>
+      <c r="S26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D27" t="s">
+        <v>489</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G27" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" t="s">
+        <v>490</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>491</v>
+      </c>
+      <c r="L27" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27" t="s">
+        <v>229</v>
+      </c>
+      <c r="N27" t="s">
+        <v>261</v>
+      </c>
+      <c r="P27" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="6">
+        <v>1208882057</v>
+      </c>
+      <c r="S27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>296</v>
+      </c>
+      <c r="D28" t="s">
+        <v>493</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" t="s">
+        <v>494</v>
+      </c>
+      <c r="J28" t="s">
+        <v>299</v>
+      </c>
+      <c r="K28" t="s">
+        <v>495</v>
+      </c>
+      <c r="L28" t="s">
+        <v>191</v>
+      </c>
+      <c r="M28" t="s">
+        <v>231</v>
+      </c>
+      <c r="N28" t="s">
+        <v>260</v>
+      </c>
+      <c r="P28" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="6">
+        <v>1208095402</v>
+      </c>
+      <c r="S28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L29" t="s">
+        <v>304</v>
+      </c>
+      <c r="M29" t="s">
+        <v>303</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="6">
+        <v>8855450612</v>
+      </c>
+      <c r="S29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>497</v>
+      </c>
+      <c r="D30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G30" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" t="s">
+        <v>499</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>500</v>
+      </c>
+      <c r="L30" t="s">
+        <v>192</v>
+      </c>
+      <c r="M30" t="s">
+        <v>233</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="6">
+        <v>1200515191</v>
+      </c>
+      <c r="S30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>501</v>
+      </c>
+      <c r="D31" t="s">
+        <v>502</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" t="s">
+        <v>503</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>504</v>
+      </c>
+      <c r="L31" t="s">
+        <v>195</v>
+      </c>
+      <c r="M31" t="s">
+        <v>221</v>
+      </c>
+      <c r="N31" t="s">
+        <v>264</v>
+      </c>
+      <c r="P31" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="6">
+        <v>1206929666</v>
+      </c>
+      <c r="S31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>506</v>
+      </c>
+      <c r="D32" t="s">
+        <v>507</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" t="s">
+        <v>508</v>
+      </c>
+      <c r="J32" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" t="s">
+        <v>509</v>
+      </c>
+      <c r="L32" t="s">
+        <v>193</v>
+      </c>
+      <c r="M32" t="s">
+        <v>231</v>
+      </c>
+      <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="P32" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="6">
+        <v>1206782692</v>
+      </c>
+      <c r="S32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>511</v>
+      </c>
+      <c r="D33" t="s">
+        <v>512</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" t="s">
+        <v>513</v>
+      </c>
+      <c r="J33" t="s">
+        <v>299</v>
+      </c>
+      <c r="K33" t="s">
+        <v>514</v>
+      </c>
+      <c r="L33" t="s">
+        <v>194</v>
+      </c>
+      <c r="M33" t="s">
+        <v>221</v>
+      </c>
+      <c r="N33" t="s">
+        <v>263</v>
+      </c>
+      <c r="P33" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="6">
+        <v>1207113596</v>
+      </c>
+      <c r="S33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>516</v>
+      </c>
+      <c r="D34" t="s">
+        <v>517</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G34" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" t="s">
+        <v>157</v>
+      </c>
+      <c r="I34" t="s">
+        <v>518</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>519</v>
+      </c>
+      <c r="L34" t="s">
+        <v>196</v>
+      </c>
+      <c r="M34" t="s">
+        <v>231</v>
+      </c>
+      <c r="N34" t="s">
+        <v>262</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="6">
+        <v>1208900320</v>
+      </c>
+      <c r="S34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>520</v>
+      </c>
+      <c r="D35" t="s">
+        <v>521</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" t="s">
+        <v>522</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>523</v>
+      </c>
+      <c r="L35" t="s">
+        <v>197</v>
+      </c>
+      <c r="M35" t="s">
+        <v>221</v>
+      </c>
+      <c r="N35" t="s">
+        <v>243</v>
+      </c>
+      <c r="P35" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="6">
+        <v>1220224677</v>
+      </c>
+      <c r="S35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>525</v>
+      </c>
+      <c r="D36" t="s">
+        <v>526</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" t="s">
+        <v>528</v>
+      </c>
+      <c r="L36" t="s">
+        <v>198</v>
+      </c>
+      <c r="M36" t="s">
+        <v>234</v>
+      </c>
+      <c r="N36" t="s">
+        <v>265</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="6">
+        <v>1205953653</v>
+      </c>
+      <c r="S36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>529</v>
+      </c>
+      <c r="D37" t="s">
+        <v>530</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G37" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" t="s">
+        <v>531</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>532</v>
+      </c>
+      <c r="L37" t="s">
+        <v>199</v>
+      </c>
+      <c r="M37" t="s">
+        <v>221</v>
+      </c>
+      <c r="N37" t="s">
+        <v>243</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="6">
+        <v>1200488239</v>
+      </c>
+      <c r="S37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>533</v>
+      </c>
+      <c r="D38" t="s">
+        <v>534</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" t="s">
+        <v>535</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" t="s">
+        <v>536</v>
+      </c>
+      <c r="L38" t="s">
+        <v>200</v>
+      </c>
+      <c r="M38" t="s">
+        <v>221</v>
+      </c>
+      <c r="N38" t="s">
+        <v>243</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="6">
+        <v>8859999698</v>
+      </c>
+      <c r="S38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>537</v>
+      </c>
+      <c r="D39" t="s">
+        <v>538</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" t="s">
+        <v>539</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>540</v>
+      </c>
+      <c r="L39" t="s">
+        <v>201</v>
+      </c>
+      <c r="M39" t="s">
+        <v>229</v>
+      </c>
+      <c r="N39" t="s">
+        <v>266</v>
+      </c>
+      <c r="P39" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="6">
+        <v>1200342229</v>
+      </c>
+      <c r="S39" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>542</v>
+      </c>
+      <c r="D40" t="s">
+        <v>543</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" t="s">
+        <v>544</v>
+      </c>
+      <c r="J40" t="s">
+        <v>299</v>
+      </c>
+      <c r="K40" t="s">
+        <v>545</v>
+      </c>
+      <c r="L40" t="s">
+        <v>202</v>
+      </c>
+      <c r="M40" t="s">
+        <v>229</v>
+      </c>
+      <c r="N40" t="s">
+        <v>266</v>
+      </c>
+      <c r="P40" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="6">
+        <v>1200281234</v>
+      </c>
+      <c r="S40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>547</v>
+      </c>
+      <c r="D41" t="s">
+        <v>548</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G41" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I41" t="s">
+        <v>549</v>
+      </c>
+      <c r="J41" t="s">
+        <v>299</v>
+      </c>
+      <c r="K41" t="s">
+        <v>550</v>
+      </c>
+      <c r="L41" t="s">
+        <v>203</v>
+      </c>
+      <c r="M41" t="s">
+        <v>231</v>
+      </c>
+      <c r="N41" t="s">
+        <v>262</v>
+      </c>
+      <c r="P41" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="6">
+        <v>1207279319</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>552</v>
+      </c>
+      <c r="D42" t="s">
+        <v>553</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G42" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" t="s">
+        <v>554</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>555</v>
+      </c>
+      <c r="L42" t="s">
+        <v>204</v>
+      </c>
+      <c r="M42" t="s">
+        <v>221</v>
+      </c>
+      <c r="N42" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="6">
+        <v>1207351651</v>
+      </c>
+      <c r="S42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>632</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G43" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J43" t="s">
+        <v>299</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L43" t="s">
+        <v>313</v>
+      </c>
+      <c r="M43" t="s">
+        <v>231</v>
+      </c>
+      <c r="N43" t="s">
+        <v>262</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>556</v>
+      </c>
+      <c r="D44" t="s">
+        <v>557</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G44" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" t="s">
+        <v>558</v>
+      </c>
+      <c r="J44" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" t="s">
+        <v>559</v>
+      </c>
+      <c r="L44" t="s">
+        <v>205</v>
+      </c>
+      <c r="M44" t="s">
+        <v>235</v>
+      </c>
+      <c r="N44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P44" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="6">
+        <v>1200154406</v>
+      </c>
+      <c r="S44" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>561</v>
+      </c>
+      <c r="D45" t="s">
+        <v>562</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" t="s">
+        <v>155</v>
+      </c>
+      <c r="I45" t="s">
+        <v>563</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>564</v>
+      </c>
+      <c r="L45" t="s">
+        <v>206</v>
+      </c>
+      <c r="M45" t="s">
+        <v>236</v>
+      </c>
+      <c r="N45" t="s">
+        <v>267</v>
+      </c>
+      <c r="P45" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="6">
+        <v>1200281270</v>
+      </c>
+      <c r="S45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" t="s">
+        <v>566</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G46" t="s">
+        <v>168</v>
+      </c>
+      <c r="H46" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" t="s">
+        <v>567</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>568</v>
+      </c>
+      <c r="L46" t="s">
+        <v>207</v>
+      </c>
+      <c r="M46" t="s">
+        <v>229</v>
+      </c>
+      <c r="N46" t="s">
+        <v>262</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="6">
+        <v>8873898743</v>
+      </c>
+      <c r="S46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>569</v>
+      </c>
+      <c r="D47" t="s">
+        <v>570</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G47" t="s">
+        <v>164</v>
+      </c>
+      <c r="H47" t="s">
+        <v>164</v>
+      </c>
+      <c r="I47" t="s">
+        <v>571</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>572</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>237</v>
+      </c>
+      <c r="N47" t="s">
+        <v>268</v>
+      </c>
+      <c r="P47" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="S47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>556</v>
+      </c>
+      <c r="D48" t="s">
+        <v>575</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G48" t="s">
+        <v>169</v>
+      </c>
+      <c r="H48" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" t="s">
+        <v>576</v>
+      </c>
+      <c r="J48" t="s">
+        <v>299</v>
+      </c>
+      <c r="K48" t="s">
+        <v>577</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>238</v>
+      </c>
+      <c r="N48" t="s">
+        <v>269</v>
+      </c>
+      <c r="P48" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="S48" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>580</v>
+      </c>
+      <c r="D49" t="s">
+        <v>581</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" t="s">
+        <v>582</v>
+      </c>
+      <c r="J49" t="s">
+        <v>299</v>
+      </c>
+      <c r="K49" t="s">
+        <v>583</v>
+      </c>
+      <c r="L49" t="s">
+        <v>208</v>
+      </c>
+      <c r="M49" t="s">
+        <v>239</v>
+      </c>
+      <c r="N49" t="s">
+        <v>243</v>
+      </c>
+      <c r="P49" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="S49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>370</v>
+      </c>
+      <c r="D50" t="s">
+        <v>586</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G50" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" t="s">
+        <v>169</v>
+      </c>
+      <c r="I50" t="s">
+        <v>587</v>
+      </c>
+      <c r="J50" t="s">
+        <v>299</v>
+      </c>
+      <c r="K50" t="s">
+        <v>588</v>
+      </c>
+      <c r="L50" t="s">
+        <v>209</v>
+      </c>
+      <c r="M50" t="s">
+        <v>240</v>
+      </c>
+      <c r="N50" t="s">
+        <v>243</v>
+      </c>
+      <c r="P50" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="S50" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>591</v>
+      </c>
+      <c r="D51" t="s">
+        <v>592</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G51" t="s">
+        <v>169</v>
+      </c>
+      <c r="H51" t="s">
+        <v>169</v>
+      </c>
+      <c r="I51" t="s">
+        <v>593</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>594</v>
+      </c>
+      <c r="L51" t="s">
+        <v>210</v>
+      </c>
+      <c r="M51" t="s">
+        <v>221</v>
+      </c>
+      <c r="N51" t="s">
+        <v>264</v>
+      </c>
+      <c r="P51" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="S51" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>317</v>
+      </c>
+      <c r="D52" t="s">
+        <v>598</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G52" t="s">
+        <v>164</v>
+      </c>
+      <c r="H52" t="s">
+        <v>164</v>
+      </c>
+      <c r="I52" t="s">
+        <v>599</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>600</v>
+      </c>
+      <c r="L52" t="s">
+        <v>211</v>
+      </c>
+      <c r="M52" t="s">
+        <v>221</v>
+      </c>
+      <c r="N52" t="s">
+        <v>270</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="6">
+        <v>1208109066</v>
+      </c>
+      <c r="S52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>318</v>
+      </c>
+      <c r="D53" t="s">
+        <v>601</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G53" t="s">
+        <v>324</v>
+      </c>
+      <c r="H53" t="s">
+        <v>324</v>
+      </c>
+      <c r="I53" t="s">
+        <v>602</v>
+      </c>
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
+        <v>603</v>
+      </c>
+      <c r="L53" t="s">
+        <v>212</v>
+      </c>
+      <c r="M53" t="s">
+        <v>221</v>
+      </c>
+      <c r="N53" t="s">
+        <v>242</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="6">
+        <v>1208153124</v>
+      </c>
+      <c r="S53" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>327</v>
+      </c>
+      <c r="D54" t="s">
+        <v>604</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G54" t="s">
+        <v>170</v>
+      </c>
+      <c r="H54" t="s">
+        <v>170</v>
+      </c>
+      <c r="I54" t="s">
+        <v>605</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" t="s">
+        <v>606</v>
+      </c>
+      <c r="L54" t="s">
+        <v>337</v>
+      </c>
+      <c r="M54" t="s">
+        <v>221</v>
+      </c>
+      <c r="N54" t="s">
+        <v>244</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="6">
+        <v>4505378447</v>
+      </c>
+      <c r="S54" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>319</v>
+      </c>
+      <c r="D55" t="s">
+        <v>607</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G55" t="s">
+        <v>170</v>
+      </c>
+      <c r="H55" t="s">
+        <v>170</v>
+      </c>
+      <c r="I55" t="s">
+        <v>608</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>609</v>
+      </c>
+      <c r="L55" t="s">
+        <v>213</v>
+      </c>
+      <c r="M55" t="s">
+        <v>221</v>
+      </c>
+      <c r="N55" t="s">
+        <v>271</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="6">
+        <v>8820496819</v>
+      </c>
+      <c r="S55" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" t="s">
+        <v>611</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G56" t="s">
+        <v>170</v>
+      </c>
+      <c r="H56" t="s">
+        <v>170</v>
+      </c>
+      <c r="I56" t="s">
+        <v>612</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>613</v>
+      </c>
+      <c r="L56" t="s">
+        <v>214</v>
+      </c>
+      <c r="M56" t="s">
+        <v>221</v>
+      </c>
+      <c r="N56" t="s">
+        <v>242</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="6">
+        <v>1680769561</v>
+      </c>
+      <c r="S56" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
+        <v>614</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G57" t="s">
+        <v>170</v>
+      </c>
+      <c r="H57" t="s">
+        <v>170</v>
+      </c>
+      <c r="I57" t="s">
+        <v>615</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" t="s">
+        <v>616</v>
+      </c>
+      <c r="L57" t="s">
+        <v>341</v>
+      </c>
+      <c r="M57" t="s">
+        <v>221</v>
+      </c>
+      <c r="N57" t="s">
+        <v>272</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="6">
+        <v>8834404000</v>
+      </c>
+      <c r="S57" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>322</v>
+      </c>
+      <c r="D58" t="s">
+        <v>618</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G58" t="s">
+        <v>170</v>
+      </c>
+      <c r="H58" t="s">
+        <v>170</v>
+      </c>
+      <c r="I58" t="s">
+        <v>619</v>
+      </c>
+      <c r="J58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" t="s">
+        <v>620</v>
+      </c>
+      <c r="L58" t="s">
+        <v>343</v>
+      </c>
+      <c r="M58" t="s">
+        <v>221</v>
+      </c>
+      <c r="N58" t="s">
+        <v>273</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="6">
+        <v>8802119336</v>
+      </c>
+      <c r="S58" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>333</v>
+      </c>
+      <c r="D59" t="s">
+        <v>621</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G59" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" t="s">
+        <v>170</v>
+      </c>
+      <c r="I59" t="s">
+        <v>622</v>
+      </c>
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" t="s">
+        <v>623</v>
+      </c>
+      <c r="L59" t="s">
+        <v>344</v>
+      </c>
+      <c r="M59" t="s">
+        <v>221</v>
+      </c>
+      <c r="N59" t="s">
+        <v>244</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="6">
+        <v>8842119183</v>
+      </c>
+      <c r="S59" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>329</v>
+      </c>
+      <c r="D60" t="s">
+        <v>624</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G60" t="s">
+        <v>170</v>
+      </c>
+      <c r="H60" t="s">
+        <v>170</v>
+      </c>
+      <c r="I60" t="s">
+        <v>625</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s">
+        <v>626</v>
+      </c>
+      <c r="L60" t="s">
+        <v>215</v>
+      </c>
+      <c r="M60" t="s">
+        <v>221</v>
+      </c>
+      <c r="N60" t="s">
+        <v>242</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="6">
+        <v>8872119405</v>
+      </c>
+      <c r="S60" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>336</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G61" t="s">
+        <v>170</v>
+      </c>
+      <c r="H61" t="s">
+        <v>170</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L61" t="s">
+        <v>349</v>
+      </c>
+      <c r="M61" t="s">
+        <v>369</v>
+      </c>
+      <c r="N61" t="s">
+        <v>242</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="6">
+        <v>8834931969</v>
+      </c>
+      <c r="S61" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>330</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G62" t="s">
+        <v>170</v>
+      </c>
+      <c r="H62" t="s">
+        <v>170</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L62" t="s">
+        <v>365</v>
+      </c>
+      <c r="M62" t="s">
+        <v>221</v>
+      </c>
+      <c r="N62" t="s">
+        <v>367</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="6">
+        <v>8865648297</v>
+      </c>
+      <c r="S62" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G63" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" t="s">
+        <v>170</v>
+      </c>
+      <c r="I63" t="s">
+        <v>352</v>
+      </c>
+      <c r="J63" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L63" t="s">
+        <v>354</v>
+      </c>
+      <c r="M63" t="s">
+        <v>221</v>
+      </c>
+      <c r="N63" t="s">
+        <v>355</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="6">
+        <v>8826485433</v>
+      </c>
+      <c r="S63" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>323</v>
+      </c>
+      <c r="D64" t="s">
+        <v>628</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G64" t="s">
+        <v>321</v>
+      </c>
+      <c r="H64" t="s">
+        <v>321</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J64" t="s">
+        <v>299</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L64" t="s">
+        <v>216</v>
+      </c>
+      <c r="M64" t="s">
+        <v>359</v>
+      </c>
+      <c r="N64" t="s">
+        <v>242</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="6">
+        <v>8894490048</v>
+      </c>
+      <c r="S64" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>629</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I65" t="s">
+        <v>630</v>
+      </c>
+      <c r="J65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" t="s">
+        <v>631</v>
+      </c>
+      <c r="L65" t="s">
+        <v>360</v>
+      </c>
+      <c r="M65" t="s">
+        <v>221</v>
+      </c>
+      <c r="N65" t="s">
+        <v>244</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="6">
+        <v>1208884938</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>294</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S65"/>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1"/>
+    <hyperlink ref="C19" r:id="rId2"/>
+    <hyperlink ref="C46" r:id="rId3" display="mailto:ducle.200301@gmail.com"/>
+    <hyperlink ref="C55" r:id="rId4"/>
+    <hyperlink ref="C56" r:id="rId5" display="mailto:7604vuhoa@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:E1 A2:E2 G2:S2 G1:S1" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'C:\Users\Admin\AppData\Local\Temp\Zalo Temp\TempDownloads\[DS STK của CBNV.xlsx]Ma ngan hang 8 so'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>S21 S41 S65</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>